--- a/data/Spravochniki/IOU11.xlsx
+++ b/data/Spravochniki/IOU11.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RAO_Project\data\Spravochniki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaa\Documents\GitHub\RAO_Project\data\Spravochniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17632AD9-724E-4D85-A52E-C67E88E486AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A0F02C-19D3-4334-999D-D8562541C178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{108CF008-39DC-48A1-ABC8-D086982FE67A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{108CF008-39DC-48A1-ABC8-D086982FE67A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
     <sheet name="Лист2" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$A$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
   <si>
     <t>нормализованное наименование</t>
   </si>
@@ -374,12 +374,6 @@
   </si>
   <si>
     <t>КЗ-1</t>
-  </si>
-  <si>
-    <t>контейнер защитный</t>
-  </si>
-  <si>
-    <t>перезарядный контейнер</t>
   </si>
   <si>
     <t>радиационная головка</t>
@@ -781,600 +775,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E30D8B8-0EF3-42AA-A558-9645B04D1E1D}">
-  <dimension ref="A1:A116"/>
+  <dimension ref="A1:A114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.54296875" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A116" xr:uid="{4E30D8B8-0EF3-42AA-A558-9645B04D1E1D}"/>
+  <autoFilter ref="A1:A114" xr:uid="{4E30D8B8-0EF3-42AA-A558-9645B04D1E1D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1383,527 +1367,527 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7663930-B285-4A42-B56E-5EFA8E6BE8AE}">
   <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103"/>
     </row>
   </sheetData>

--- a/data/Spravochniki/IOU11.xlsx
+++ b/data/Spravochniki/IOU11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oaa\Documents\GitHub\RAO_Project\data\Spravochniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A0F02C-19D3-4334-999D-D8562541C178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93564946-8548-42C2-AB0A-C434DE287425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{108CF008-39DC-48A1-ABC8-D086982FE67A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист2!$A$1:$A$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="114">
   <si>
     <t>нормализованное наименование</t>
   </si>
@@ -775,11 +775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E30D8B8-0EF3-42AA-A558-9645B04D1E1D}">
-  <dimension ref="A1:A114"/>
+  <dimension ref="A1:A113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,357 +1008,352 @@
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>42</v>
+      <c r="A45" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>106</v>
+      <c r="A53" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>62</v>
+      <c r="A72" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>113</v>
+      <c r="A76" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>72</v>
+      <c r="A85" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>73</v>
+      <c r="A86" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>86</v>
+      <c r="A99" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>88</v>
+      <c r="A101" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>99</v>
+      <c r="A112" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A113" s="2" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A114" xr:uid="{4E30D8B8-0EF3-42AA-A558-9645B04D1E1D}"/>
+  <autoFilter ref="A1:A113" xr:uid="{4E30D8B8-0EF3-42AA-A558-9645B04D1E1D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
